--- a/several_pages.xlsx
+++ b/several_pages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>វិក្កយប័ត្រអាករ</t>
   </si>
@@ -215,6 +215,63 @@
   </si>
   <si>
     <t>272.73</t>
+  </si>
+  <si>
+    <t>សរុប</t>
+  </si>
+  <si>
+    <t>Total  :</t>
+  </si>
+  <si>
+    <t>1,467.27</t>
+  </si>
+  <si>
+    <t>អាករលើតម្លែបន្ថែម ១០%</t>
+  </si>
+  <si>
+    <t>VAT 10%:</t>
+  </si>
+  <si>
+    <t>សរុបរួម</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL:</t>
+  </si>
+  <si>
+    <t>1,614.00</t>
+  </si>
+  <si>
+    <t>ការទូទាត់អាចធ្វើឡើងតាមមូលឡបទានប័ត្រ</t>
+  </si>
+  <si>
+    <t>ហត្ថលេខា</t>
+  </si>
+  <si>
+    <t>ឬ តាមរយ:ការទូទាត់ទៅធនាគារ</t>
+  </si>
+  <si>
+    <t>Authorized Signature</t>
+  </si>
+  <si>
+    <t>Payment can be made by Cheque</t>
+  </si>
+  <si>
+    <t>or Bank Transfer payable to :</t>
+  </si>
+  <si>
+    <t>Account Name: Cambodian Broadcasting Service</t>
+  </si>
+  <si>
+    <t>-------------------------------</t>
+  </si>
+  <si>
+    <t>Account No  : USD 116345</t>
+  </si>
+  <si>
+    <t>Bank Name   : ANZ Royal Bank (Cambodia) Ltd</t>
+  </si>
+  <si>
+    <t>SWIFT CODE: ANZBKHPP</t>
   </si>
 </sst>
 </file>
@@ -613,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I37"/>
+  <dimension ref="B1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17355,56 +17412,138 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s" s="3">
-        <v>35</v>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F47" t="s" s="2">
+        <v>67</v>
       </c>
-      <c r="C34" t="s" s="3">
-        <v>35</v>
+      <c r="G47" t="s" s="2">
+        <v>68</v>
       </c>
-      <c r="D34" t="s" s="3">
-        <v>35</v>
+      <c r="I47" t="s" s="2">
+        <v>69</v>
       </c>
-      <c r="E34" t="s" s="3">
-        <v>35</v>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F48" t="s" s="2">
+        <v>70</v>
       </c>
-      <c r="F34" t="s" s="3">
-        <v>35</v>
+      <c r="G48" t="s" s="2">
+        <v>71</v>
       </c>
-      <c r="G34" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="H34" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="I34" t="s" s="3">
+      <c r="I48" t="s" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s" s="3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="C37" t="s" s="3">
+      <c r="C50" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="D37" t="s" s="3">
+      <c r="D50" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="E37" t="s" s="3">
+      <c r="E50" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="F37" t="s" s="3">
+      <c r="F50" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="G37" t="s" s="3">
+      <c r="G50" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="H37" t="s" s="3">
+      <c r="H50" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="I37" t="s" s="3">
+      <c r="I50" t="s" s="3">
         <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="H53" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="I53" t="s" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/several_pages.xlsx
+++ b/several_pages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="211">
   <si>
     <t>វិក្កយប័ត្រអាករ</t>
   </si>
@@ -43,126 +43,483 @@
     <t>Bill To:           </t>
   </si>
   <si>
+    <t>Sok Heng (Gin Seng Wine)</t>
+  </si>
+  <si>
     <t>Invoice  No.</t>
   </si>
   <si>
     <t>:</t>
   </si>
   <si>
+    <t>MI-A080804</t>
+  </si>
+  <si>
+    <t>កាលបរិចេ្ឆទ</t>
+  </si>
+  <si>
+    <t>452 Highway No. 5 Km6 Russey Keo</t>
+  </si>
+  <si>
+    <t>Invoice  Dt.</t>
+  </si>
+  <si>
+    <t>29/02/2016</t>
+  </si>
+  <si>
+    <t>លេខរៀងការបញ្ជាទិញ</t>
+  </si>
+  <si>
+    <t>Phnom Penh, Cambodia</t>
+  </si>
+  <si>
+    <t>S.O.No.     </t>
+  </si>
+  <si>
+    <t>MI-A083697</t>
+  </si>
+  <si>
+    <t>លេខកូតអតិថិជន</t>
+  </si>
+  <si>
+    <t>កិច្ចសន្យាលេខ</t>
+  </si>
+  <si>
+    <t>C.Code :</t>
+  </si>
+  <si>
+    <t>CG000002</t>
+  </si>
+  <si>
+    <t>Contract No.</t>
+  </si>
+  <si>
+    <t>MRS1602</t>
+  </si>
+  <si>
+    <t> VAT    :</t>
+  </si>
+  <si>
+    <t>កាលបរិចេ្ឆទនៃកិច្ចសន្យា</t>
+  </si>
+  <si>
+    <t>Contract Dt.</t>
+  </si>
+  <si>
+    <t>1-Feb-16</t>
+  </si>
+  <si>
+    <t>ទំនាក់ទំនង</t>
+  </si>
+  <si>
+    <t>រយ:ពេលទូទាត់</t>
+  </si>
+  <si>
+    <t>៧ថ្ងៃបន្ទាប់ពីទទួលបានវិក្កយប័ត្រ</t>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Gin Seng Wine</t>
+  </si>
+  <si>
+    <t>Terms:   7 days after the</t>
+  </si>
+  <si>
+    <t>date of receiving invoice</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>លេខរៀង</t>
+  </si>
+  <si>
+    <t>កូតទំនិញេ/សេវា</t>
+  </si>
+  <si>
+    <t>បរិយាយមុខទំនិញ/សេវា</t>
+  </si>
+  <si>
+    <t>បរិមាណ</t>
+  </si>
+  <si>
+    <t>ចំនួនទឹកប្រាក់</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Item Code</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>No.of Spot</t>
+  </si>
+  <si>
+    <t>US$ Amount</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ganzberg Beer Ads 02 16</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>I10A4511</t>
+  </si>
+  <si>
+    <t>SP Package-45s 1100-1200</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>919.19</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>I10A2511</t>
+  </si>
+  <si>
+    <t>SP Package-25s 1100-1200</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1,626.26</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>I10A4512</t>
+  </si>
+  <si>
+    <t>SP Package-45s 1200-1300</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>754.21</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>I10A2512</t>
+  </si>
+  <si>
+    <t>SP Package-25s 1200-1300</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1,791.25</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1,664.34</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>881.12</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>I10A4520</t>
+  </si>
+  <si>
+    <t>SP Package-45s 2000-2100</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>I10A2520</t>
+  </si>
+  <si>
+    <t>SP Package-25s 2000-2100</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>I0004514</t>
+  </si>
+  <si>
+    <t>Loose spot 45s 1400-1500</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>I10A2506</t>
+  </si>
+  <si>
+    <t>SP Package-25s 0600-0700</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1,590.91</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>4,009.09</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>I0002514</t>
+  </si>
+  <si>
+    <t>Loose spot 25s 1400-1500</t>
+  </si>
+  <si>
+    <t>814.55</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Rondonal Ads Feb 16</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>226.06</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>I10A4517</t>
+  </si>
+  <si>
+    <t>SP Package-45s 1700-1800</t>
+  </si>
+  <si>
+    <t>សរុបទំព័រទី១​</t>
+  </si>
+  <si>
+    <t>Sub Total Page No.  1:  </t>
+  </si>
+  <si>
+    <t>15,317.59</t>
+  </si>
+  <si>
+    <t>Page No.:        2</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>I10A4522</t>
+  </si>
+  <si>
+    <t>SP Package-45s 2100-2200</t>
+  </si>
+  <si>
+    <t>Gin Seng Wine Ads 0216</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>1,431.82</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>Freshy Ads Feb 16</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>I10A4506</t>
+  </si>
+  <si>
+    <t>SP Package-45s 0600-0700</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>I10A2519</t>
+  </si>
+  <si>
+    <t>SP Package-25s 1900-2000</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>2,545.45</t>
+  </si>
+  <si>
+    <t>Alexand Ads Feb 16</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>I10A4514</t>
+  </si>
+  <si>
+    <t>SP Package-45s 1400-1500</t>
+  </si>
+  <si>
+    <t>27,272.73</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>610.91</t>
+  </si>
+  <si>
+    <t>សរុប</t>
+  </si>
+  <si>
+    <t>Total  :</t>
+  </si>
+  <si>
+    <t>50,427.29</t>
+  </si>
+  <si>
+    <t>អាករលើតម្លែបន្ថែម ១០%</t>
+  </si>
+  <si>
+    <t>VAT 10%:</t>
+  </si>
+  <si>
+    <t>សរុបរួម</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL:</t>
+  </si>
+  <si>
+    <t>55,470.00</t>
+  </si>
+  <si>
+    <t>ការទូទាត់អាចធ្វើឡើងតាមមូលឡបទានប័ត្រ</t>
+  </si>
+  <si>
+    <t>ហត្ថលេខា</t>
+  </si>
+  <si>
+    <t>ឬ តាមរយ:ការទូទាត់ទៅធនាគារ</t>
+  </si>
+  <si>
+    <t>Authorized Signature</t>
+  </si>
+  <si>
+    <t>Payment can be made by Cheque</t>
+  </si>
+  <si>
+    <t>or Bank Transfer payable to :</t>
+  </si>
+  <si>
+    <t>Account Name: Cambodian Broadcasting Service</t>
+  </si>
+  <si>
+    <t>-------------------------------</t>
+  </si>
+  <si>
+    <t>Account No  : USD 116345</t>
+  </si>
+  <si>
+    <t>Bank Name   : ANZ Royal Bank (Cambodia) Ltd</t>
+  </si>
+  <si>
+    <t>SWIFT CODE: ANZBKHPP</t>
+  </si>
+  <si>
+    <t>Man Advertising Agency</t>
+  </si>
+  <si>
     <t>MI-A080805</t>
   </si>
   <si>
-    <t>កាលបរិចេ្ឆទ</t>
-  </si>
-  <si>
-    <t>Invoice  Dt.</t>
-  </si>
-  <si>
-    <t>29/02/2016</t>
-  </si>
-  <si>
-    <t>លេខរៀងការបញ្ជាទិញ</t>
-  </si>
-  <si>
-    <t>S.O.No.     </t>
+    <t>No 218A, St.156, S/K Toeuk Laok II,</t>
+  </si>
+  <si>
+    <t>Khan Toul Kork, Phnom Penh,</t>
   </si>
   <si>
     <t>MI-A083698</t>
   </si>
   <si>
-    <t>លេខកូតអតិថិជន</t>
-  </si>
-  <si>
-    <t>កិច្ចសន្យាលេខ</t>
-  </si>
-  <si>
-    <t>C.Code :</t>
-  </si>
-  <si>
     <t>CMAA0001</t>
   </si>
   <si>
-    <t>Contract No.</t>
-  </si>
-  <si>
-    <t>MRS1602</t>
-  </si>
-  <si>
-    <t> VAT    :</t>
-  </si>
-  <si>
-    <t>កាលបរិចេ្ឆទនៃកិច្ចសន្យា</t>
-  </si>
-  <si>
-    <t>Contract Dt.</t>
-  </si>
-  <si>
-    <t>1-Feb-16</t>
-  </si>
-  <si>
-    <t>ទំនាក់ទំនង</t>
-  </si>
-  <si>
-    <t>រយ:ពេលទូទាត់</t>
-  </si>
-  <si>
-    <t>៧ថ្ងៃបន្ទាប់ពីទទួលបានវិក្កយប័ត្រ</t>
-  </si>
-  <si>
-    <t>Contact:</t>
-  </si>
-  <si>
     <t>Man Advertising</t>
   </si>
   <si>
-    <t>Terms:   7 days after the</t>
-  </si>
-  <si>
-    <t>date of receiving invoice</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>លេខរៀង</t>
-  </si>
-  <si>
-    <t>កូតទំនិញេ/សេវា</t>
-  </si>
-  <si>
-    <t>បរិយាយមុខទំនិញ/សេវា</t>
-  </si>
-  <si>
-    <t>បរិមាណ</t>
-  </si>
-  <si>
-    <t>ចំនួនទឹកប្រាក់</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>Item Code</t>
-  </si>
-  <si>
-    <t>Item Description</t>
-  </si>
-  <si>
-    <t>No.of Spot</t>
-  </si>
-  <si>
-    <t>US$ Amount</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Cool Skin Ads Feb 2016</t>
   </si>
   <si>
-    <t>002</t>
-  </si>
-  <si>
     <t>I0001510</t>
   </si>
   <si>
@@ -175,9 +532,6 @@
     <t>29.09</t>
   </si>
   <si>
-    <t>003</t>
-  </si>
-  <si>
     <t>I0001518</t>
   </si>
   <si>
@@ -187,9 +541,6 @@
     <t>145.45</t>
   </si>
   <si>
-    <t>004</t>
-  </si>
-  <si>
     <t>I0001520</t>
   </si>
   <si>
@@ -199,79 +550,103 @@
     <t>340.00</t>
   </si>
   <si>
-    <t>005</t>
-  </si>
-  <si>
     <t>I0001517</t>
   </si>
   <si>
     <t>Loose spot 15s 1700-1800</t>
   </si>
   <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
     <t>272.73</t>
   </si>
   <si>
-    <t>សរុប</t>
-  </si>
-  <si>
-    <t>Total  :</t>
-  </si>
-  <si>
     <t>1,467.27</t>
   </si>
   <si>
-    <t>អាករលើតម្លែបន្ថែម ១០%</t>
-  </si>
-  <si>
-    <t>VAT 10%:</t>
-  </si>
-  <si>
-    <t>សរុបរួម</t>
-  </si>
-  <si>
-    <t>GRAND TOTAL:</t>
-  </si>
-  <si>
     <t>1,614.00</t>
   </si>
   <si>
-    <t>ការទូទាត់អាចធ្វើឡើងតាមមូលឡបទានប័ត្រ</t>
-  </si>
-  <si>
-    <t>ហត្ថលេខា</t>
-  </si>
-  <si>
-    <t>ឬ តាមរយ:ការទូទាត់ទៅធនាគារ</t>
-  </si>
-  <si>
-    <t>Authorized Signature</t>
-  </si>
-  <si>
-    <t>Payment can be made by Cheque</t>
-  </si>
-  <si>
-    <t>or Bank Transfer payable to :</t>
-  </si>
-  <si>
-    <t>Account Name: Cambodian Broadcasting Service</t>
-  </si>
-  <si>
-    <t>-------------------------------</t>
-  </si>
-  <si>
-    <t>Account No  : USD 116345</t>
-  </si>
-  <si>
-    <t>Bank Name   : ANZ Royal Bank (Cambodia) Ltd</t>
-  </si>
-  <si>
-    <t>SWIFT CODE: ANZBKHPP</t>
+    <t>MI-A080806</t>
+  </si>
+  <si>
+    <t>MI-A083699</t>
+  </si>
+  <si>
+    <t>Jolen Ads Feb 2016</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>116.36</t>
+  </si>
+  <si>
+    <t>581.82</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>816.00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>544.00</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>408.00</t>
+  </si>
+  <si>
+    <t>327.27</t>
+  </si>
+  <si>
+    <t>2,793.45</t>
+  </si>
+  <si>
+    <t>3,072.80</t>
+  </si>
+  <si>
+    <t>Pharma Product Manufacturing</t>
+  </si>
+  <si>
+    <t>MI-A080807</t>
+  </si>
+  <si>
+    <t>No.138, Street 110, S/K Chom Chao,</t>
+  </si>
+  <si>
+    <t>Khan Posen Chey, Phnom Penh.</t>
+  </si>
+  <si>
+    <t>MI-A083700</t>
+  </si>
+  <si>
+    <t>CPPM001</t>
+  </si>
+  <si>
+    <t>Pharma Product</t>
+  </si>
+  <si>
+    <t>Kinal Ads Feb 2016</t>
+  </si>
+  <si>
+    <t>I0003007</t>
+  </si>
+  <si>
+    <t>Loose spot 30s 0700-0800</t>
+  </si>
+  <si>
+    <t>2,000.00</t>
+  </si>
+  <si>
+    <t>100048005</t>
+  </si>
+  <si>
+    <t>2,200.00</t>
   </si>
 </sst>
 </file>
@@ -670,7 +1045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I62"/>
+  <dimension ref="B1:I349"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17100,450 +17475,2515 @@
       <c r="B7" t="s" s="2">
         <v>8</v>
       </c>
+      <c r="C7" t="s" s="2">
+        <v>9</v>
+      </c>
       <c r="G7" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G8" t="s" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s" s="2">
+        <v>14</v>
+      </c>
       <c r="G9" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G10" t="s" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="7:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s" s="2">
+        <v>18</v>
+      </c>
       <c r="G11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G16" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I27" t="s" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s" s="4">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I28" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s" s="4">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s" s="4">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s" s="2">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s" s="4">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s" s="4">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s" s="4">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s" s="2">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s" s="4">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F47" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F48" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="I36" t="s" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="I37" t="s" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="I39" t="s" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="I40" t="s" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="G41" t="s" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="G42" t="s" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G44" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="I44" t="s" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="G45" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="I45" t="s" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E47" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G47" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E48" t="s" s="2">
+        <v>113</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>35</v>
+        <v>114</v>
+      </c>
+      <c r="I48" t="s" s="4">
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G78" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C50" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="D50" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="E50" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="F50" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="H50" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="I50" t="s" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I51" t="s" s="2">
+      <c r="G80" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G81" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C83" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D83" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E83" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H83" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I83" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C87" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D87" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E87" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F87" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G87" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H87" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I87" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="G88" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="I88" t="s" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="I90" t="s" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="I91" t="s" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="G93" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="I93" t="s" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="G94" t="s" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G95" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="I95" t="s" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="G97" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="I97" t="s" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G98" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="I98" t="s" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F109" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="G109" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="I109" t="s" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F110" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="G110" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="I110" t="s" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C112" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D112" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E112" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F112" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H112" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I112" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F113" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="G113" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="I113" t="s" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C115" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D115" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E115" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F115" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G115" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H115" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I115" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G145" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C146" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G147" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C148" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G153" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G156" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C158" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D158" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E158" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F158" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G158" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H158" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I158" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D159" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D160" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C162" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D162" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E162" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F162" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G162" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H162" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I162" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C163" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D163" t="s" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="D164" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="G164" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="I164" t="s" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="D165" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="G165" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="I165" t="s" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="D166" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="G166" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="I166" t="s" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="D167" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="G167" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="I167" t="s" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="D168" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="G168" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="I168" t="s" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" t="s" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="C53" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="D53" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="E53" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="F53" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="G53" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="H53" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="I53" t="s" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s" s="2">
-        <v>85</v>
+      <c r="C169" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="D169" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="G169" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="I169" t="s" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F184" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="G184" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="I184" t="s" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F185" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="G185" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="I185" t="s" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C187" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D187" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E187" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F187" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G187" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H187" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I187" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F188" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="G188" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="I188" t="s" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C190" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D190" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E190" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F190" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G190" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H190" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I190" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B215" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G215" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B216" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="G216" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B218" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="G218" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="G219" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I219" t="s" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G220" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C221" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="G221" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I221" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G222" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C223" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="G223" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B225" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="G225" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="G226" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B227" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G227" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G228" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G229" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B230" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="G230" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G231" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C233" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D233" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E233" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F233" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G233" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H233" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I233" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D234" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G234" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D235" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G235" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I235" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C237" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D237" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E237" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F237" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G237" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H237" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I237" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C238" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D238" t="s" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C239" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="D239" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="G239" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="I239" t="s" s="4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="D240" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="G240" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="I240" t="s" s="4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B241" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="D241" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="G241" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="I241" t="s" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B242" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C242" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="D242" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="G242" t="s" s="4">
+        <v>191</v>
+      </c>
+      <c r="I242" t="s" s="4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B243" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C243" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="D243" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="G243" t="s" s="4">
+        <v>193</v>
+      </c>
+      <c r="I243" t="s" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B244" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C244" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="D244" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="G244" t="s" s="4">
+        <v>193</v>
+      </c>
+      <c r="I244" t="s" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="259" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F259" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="G259" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="I259" t="s" s="4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="260" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F260" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="G260" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="I260" t="s" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B262" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C262" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D262" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E262" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F262" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G262" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H262" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I262" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="263" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F263" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="G263" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="I263" t="s" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B265" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C265" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D265" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E265" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F265" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G265" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H265" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I265" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B266" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="I266" t="s" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B267" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="I267" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B271" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I271" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B290" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G290" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B291" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="G291" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B293" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="G293" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B294" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C294" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="G294" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="H294" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I294" t="s" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G295" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C296" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="G296" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H296" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I296" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G297" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="298" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C298" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="G298" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H298" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I298" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B300" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="G300" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B301" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C301" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="G301" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H301" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I301" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B302" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G302" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="303" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G303" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H303" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I303" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B304" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G304" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I304" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B305" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C305" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="G305" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="306" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G306" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B308" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C308" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D308" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E308" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F308" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G308" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H308" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I308" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="309" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B309" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C309" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D309" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G309" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I309" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="310" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B310" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C310" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D310" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G310" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I310" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="312" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B312" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C312" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D312" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E312" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F312" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G312" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H312" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I312" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C313" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D313" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="314" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B314" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C314" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="D314" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="G314" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="I314" t="s" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B315" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C315" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="D315" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="G315" t="s" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="334" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F334" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="G334" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="I334" t="s" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="335" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F335" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="G335" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="I335" t="s" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="337" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B337" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C337" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D337" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E337" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F337" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G337" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H337" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I337" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="338" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F338" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="G338" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="I338" t="s" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="340" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B340" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C340" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D340" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E340" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F340" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G340" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="H340" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="I340" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="341" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B341" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="I341" t="s" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="342" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B342" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="I342" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="346" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B346" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I346" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" t="s" s="2">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
